--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R928e82802b034126"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R734a284e24b84f5d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -154,7 +154,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re4262138b6c74adf"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R939fa3688574400e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -223,6 +223,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R492dab343b714660"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfd68e494fcdc44d8"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R734a284e24b84f5d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R2705eab3f26e4fd2"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -154,7 +154,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R939fa3688574400e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1d7d8696a2814c08"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -223,6 +223,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfd68e494fcdc44d8"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R04023bd1a99146ea"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R2705eab3f26e4fd2"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R5d50f11cfd58474e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -154,7 +154,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1d7d8696a2814c08"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R15c3a6408e574381"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -223,6 +223,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R04023bd1a99146ea"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf3eea7239c4c4473"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R5d50f11cfd58474e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R22d971e9a47b4f5c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -154,7 +154,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R15c3a6408e574381"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R832f69487be24bd2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -223,6 +223,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf3eea7239c4c4473"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd2bc3155e0974d91"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R22d971e9a47b4f5c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Raaba8ac68b8d45ad"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -154,7 +154,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R832f69487be24bd2"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R87b6f7c1c49b4d33"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -223,6 +223,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd2bc3155e0974d91"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R197f74c3ad774faa"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Raaba8ac68b8d45ad"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R36a6583d622649c4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -154,7 +154,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R87b6f7c1c49b4d33"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R87d641d653a84911"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -223,6 +223,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R197f74c3ad774faa"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R741edfd94bd44a27"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R36a6583d622649c4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Re63c3ccbbdb644e1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -154,7 +154,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R87d641d653a84911"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9ecca06e907e47a4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -223,6 +223,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R741edfd94bd44a27"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rdf916f831cc94e1f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Re63c3ccbbdb644e1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R57ee3011441f4411"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -154,7 +154,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9ecca06e907e47a4"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6be1c87bcb324a29"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -223,6 +223,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rdf916f831cc94e1f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rcea04083065e4f13"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R57ee3011441f4411"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rbe7e34d7114b45b8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -154,7 +154,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6be1c87bcb324a29"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Radc066fad01c4b78"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -223,6 +223,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rcea04083065e4f13"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R40ba0f4d62f648ff"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rbe7e34d7114b45b8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Ra649da6713b3411a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -154,7 +154,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Radc066fad01c4b78"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9224f63fcbef47dc"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -223,6 +223,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R40ba0f4d62f648ff"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4889eb0a3a7d4c2b"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Ra649da6713b3411a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rb2eb35637f3a4c7c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -154,7 +154,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9224f63fcbef47dc"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R22435865745a42ed"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -223,6 +223,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4889eb0a3a7d4c2b"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf7b214ac47eb4366"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rb2eb35637f3a4c7c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R98c2200d44734351"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -154,7 +154,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R22435865745a42ed"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcb2a112bf04d4d63"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -223,6 +223,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf7b214ac47eb4366"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4f1736e641554d47"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R98c2200d44734351"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R46fc3af936be479b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -154,7 +154,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcb2a112bf04d4d63"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R25239bb77b4f470c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -223,6 +223,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4f1736e641554d47"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8a5608fef43240c4"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R46fc3af936be479b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R3eadac55d0184c86"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -154,7 +154,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R25239bb77b4f470c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4726cf341c39448a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -223,6 +223,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8a5608fef43240c4"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8bca8e8c4b3149db"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R3eadac55d0184c86"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Ra9d9d67e90924c07"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -154,7 +154,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R4726cf341c39448a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfd4f8475ee4e4e28"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -223,6 +223,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8bca8e8c4b3149db"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3d1b32c943d84d92"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Ra9d9d67e90924c07"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R972bdc10f316466d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -154,7 +154,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfd4f8475ee4e4e28"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rba1cc31ebb4d422a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -223,6 +223,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3d1b32c943d84d92"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3a585145d41a4184"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R972bdc10f316466d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R7c36ce1871eb44b5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -154,7 +154,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rba1cc31ebb4d422a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8f9fb25a44da4c74"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -223,6 +223,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3a585145d41a4184"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R14d7090339f14c58"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R7c36ce1871eb44b5"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Re5603f73caf44908"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -84,6 +84,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Series 1</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'Sales Data'!$A$2:$A$7</c:f>
@@ -154,7 +157,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8f9fb25a44da4c74"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb709fd4a02224929"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -223,6 +226,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R14d7090339f14c58"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R04be9095d62d47ee"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Re5603f73caf44908"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rdf929461a8a84855"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -157,7 +157,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb709fd4a02224929"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6bbed4c7f0ad4651"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -226,6 +226,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R04be9095d62d47ee"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rdee23fb8fed546c4"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rdf929461a8a84855"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R2ebf6c39550a4c82"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -157,7 +157,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R6bbed4c7f0ad4651"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rec4432f87503497f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -226,6 +226,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rdee23fb8fed546c4"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R93ebfa40d95c41f4"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R2ebf6c39550a4c82"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Re23fcf7e2586413e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -157,7 +157,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rec4432f87503497f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc7a56fa48435422c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -226,6 +226,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R93ebfa40d95c41f4"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rad3873eda36a45ce"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Re23fcf7e2586413e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R325eeabc5ae44653"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -157,7 +157,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc7a56fa48435422c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7ff42517c0b849a5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -226,6 +226,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rad3873eda36a45ce"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc0060ea1b6ba4869"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="R325eeabc5ae44653"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Ra5a7d24ebcb64db6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -157,7 +157,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7ff42517c0b849a5"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7156b6323d98401c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -226,6 +226,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc0060ea1b6ba4869"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbce26e8b37504e5e"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/51_AreaChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Ra5a7d24ebcb64db6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales Data" sheetId="1" r:id="Rcafba133722849e9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -157,7 +157,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7156b6323d98401c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rab7d23a084124c02"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -226,6 +226,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbce26e8b37504e5e"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R191f2440e3a546e3"/>
 </x:worksheet>
 </file>